--- a/figures/eval_figures.xlsx
+++ b/figures/eval_figures.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_39CF8CB5B01F216FADCF73EC0999F9EDF14DE3BD" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5CB9DE44-802B-45FD-AF7D-5709DC8D3401}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="15870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Fat-tree-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,15 +99,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fat-tree-3</t>
+    <t>F10-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F10-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vl2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vl2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtAsiaPac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUNET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xspedius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F10-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F10-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F10-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VL2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VL2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VL2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4Neighbor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4Neighbor-reactive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +192,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,12 +220,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -165,1206 +244,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Fat-tree-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fat-tree-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fat-tree-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$1:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1599999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5DBF-49D2-8516-224FFF2FE28D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1684517568"/>
-        <c:axId val="1684519232"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1684517568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1684519232"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1684519232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1684517568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$24:$C$26</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>F10-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>F10-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>F10-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$24:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E203-42D9-A067-7179F48A4D09}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1782121232"/>
-        <c:axId val="1782124560"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1782121232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1782124560"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1782124560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1782121232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$M$1:$M$3</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Vl2-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Vl2-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Vl2-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$1:$N$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.87</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1CC8-4600-AAE7-96FA4AC8AB62}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1594137360"/>
-        <c:axId val="1594137776"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1594137360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1594137776"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1594137776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1594137360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$M$24:$M$26</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>BtAsiaPac</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>UUNET</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Xspedius</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$24:$N$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D76-40F2-95D7-12C10F54A4DF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1684513824"/>
-        <c:axId val="1684515072"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1684513824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1684515072"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1684515072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1684513824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1448,7 +328,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1581,7 +460,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1804,7 +682,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1836,6 +713,1626 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Optimal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Fat-tree-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fat-tree-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fat-tree-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F10-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F10-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F10-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VL2-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VL2-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VL2-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>BtAsiaPac</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>UUNET</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Xspedius</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBB6-47B5-BEF2-7B61D49B1261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>P4FRR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Fat-tree-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fat-tree-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fat-tree-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F10-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F10-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F10-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VL2-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VL2-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VL2-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>BtAsiaPac</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>UUNET</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Xspedius</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EBB6-47B5-BEF2-7B61D49B1261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="18"/>
+        <c:axId val="440997263"/>
+        <c:axId val="444667631"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="440997263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444667631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444667631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440997263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Fat-tree-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fat-tree-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fat-tree-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F10-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F10-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F10-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VL2-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VL2-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VL2-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>BtAsiaPac</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>UUNET</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Xspedius</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0AE-4B3D-A2F5-265720C1B669}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Fat-tree-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fat-tree-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fat-tree-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F10-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F10-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F10-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VL2-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VL2-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VL2-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>BtAsiaPac</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>UUNET</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Xspedius</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F0AE-4B3D-A2F5-265720C1B669}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="29"/>
+        <c:axId val="17628927"/>
+        <c:axId val="334847711"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="17628927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334847711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="334847711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17628927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P4Neighbor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$117:$C$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A816-4940-B2F0-344EA6152D57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P4Neighbor-reactive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$117:$D$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A816-4940-B2F0-344EA6152D57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="253354495"/>
+        <c:axId val="254605295"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="253354495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254605295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="254605295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Recovery Time (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253354495"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2031,48 +2528,508 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2276,22 +3233,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2396,8 +3354,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2529,19 +3487,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2574,7 +3533,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3077,8 +4036,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3580,1027 +4539,30 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="38100" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4617,20 +4579,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>227880</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165930</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFDD8BDC-FE79-496E-97DD-815FDDE8F180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4647,20 +4615,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4613858A-240B-4333-B1D6-DBCDEE73F1D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4677,20 +4651,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>490537</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C70D44-CDBF-493C-BD28-50477D0EC3FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4700,36 +4680,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5000,21 +4950,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:N72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="P115" sqref="P115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1">
-        <v>1.08</v>
+        <v>0.92</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
       </c>
       <c r="M1" t="s">
         <v>6</v>
@@ -5023,12 +4976,15 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.1599999999999999</v>
+        <v>0.84</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
       </c>
       <c r="M2" t="s">
         <v>7</v>
@@ -5037,12 +4993,15 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1.1599999999999999</v>
+        <v>0.84</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="M3" t="s">
         <v>8</v>
@@ -5051,7 +5010,106 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>0.71</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>0.68</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0.13</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>0.02</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0.81</v>
+      </c>
+      <c r="E10">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1.03</v>
+      </c>
+      <c r="E11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1.36</v>
+      </c>
+      <c r="E12">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -5065,7 +5123,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -5079,7 +5137,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>5</v>
       </c>
@@ -5093,7 +5151,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>12</v>
       </c>
@@ -5104,7 +5162,7 @@
         <v>0.96409999999999996</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>13</v>
       </c>
@@ -5115,7 +5173,7 @@
         <v>0.95109999999999995</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -5126,7 +5184,7 @@
         <v>0.96109999999999995</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -5137,7 +5195,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>16</v>
       </c>
@@ -5148,7 +5206,7 @@
         <v>0.94710000000000005</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>17</v>
       </c>
@@ -5159,7 +5217,7 @@
         <v>0.97140000000000004</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>18</v>
       </c>
@@ -5173,7 +5231,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>19</v>
       </c>
@@ -5187,24 +5245,164 @@
         <v>1237.2</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>20</v>
       </c>
       <c r="D72">
-        <v>25.6</v>
+        <v>6.4</v>
       </c>
       <c r="E72">
-        <v>134.6</v>
+        <v>47.3</v>
       </c>
       <c r="F72">
-        <v>4462.3</v>
+        <v>277.60000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73">
+        <v>12.8</v>
+      </c>
+      <c r="E73">
+        <v>107.5</v>
+      </c>
+      <c r="F73">
+        <v>1144.8</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74">
+        <v>5.8</v>
+      </c>
+      <c r="E74">
+        <v>19.3</v>
+      </c>
+      <c r="F74">
+        <v>281.60000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75">
+        <v>6.7</v>
+      </c>
+      <c r="E75">
+        <v>23.4</v>
+      </c>
+      <c r="F75">
+        <v>1067.5</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76">
+        <v>6.6</v>
+      </c>
+      <c r="E76">
+        <v>11.1</v>
+      </c>
+      <c r="F76">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77">
+        <v>7.3</v>
+      </c>
+      <c r="E77">
+        <v>26.2</v>
+      </c>
+      <c r="F77">
+        <v>155.9</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78">
+        <v>7.9</v>
+      </c>
+      <c r="E78">
+        <v>18.8</v>
+      </c>
+      <c r="F78">
+        <v>148.19999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>19</v>
+      </c>
+      <c r="D117">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>24</v>
+      </c>
+      <c r="D118">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>30</v>
+      </c>
+      <c r="D119">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>34</v>
+      </c>
+      <c r="D120">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>41</v>
+      </c>
+      <c r="D121">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>51</v>
+      </c>
+      <c r="D122">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>